--- a/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Name</t>
+    <t>Username</t>
   </si>
   <si>
     <t>Password</t>
@@ -35,10 +35,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,43 +48,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,17 +90,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,77 +161,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,19 +200,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,25 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,133 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,50 +394,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,8 +421,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +474,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -501,154 +494,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,13 +966,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="12.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7110"/>
+    <workbookView windowWidth="17930" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>GmailAccount</t>
+  </si>
+  <si>
+    <t>GmailPassword</t>
+  </si>
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>tryse.rezza@amarbank.co.id</t>
   </si>
   <si>
-    <t>tryse</t>
+    <t>Trbe05011996</t>
   </si>
   <si>
-    <t>Tryse1234</t>
+    <t>Tryse Rezza</t>
   </si>
 </sst>
 </file>
@@ -47,6 +53,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -55,28 +76,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +90,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -97,22 +120,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -121,9 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,60 +196,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -200,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,17 +409,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,7 +422,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,17 +442,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,29 +468,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,136 +518,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,36 +972,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="12.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="64.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="tryse.rezza@amarbank.co.id"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6840"/>
+    <workbookView windowWidth="17930" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>GmailAccount</t>
   </si>
@@ -25,13 +25,34 @@
     <t>Username</t>
   </si>
   <si>
-    <t>tryse.rezza@amarbank.co.id</t>
-  </si>
-  <si>
-    <t>Trbe05011996</t>
+    <t>env</t>
+  </si>
+  <si>
+    <t>a4TsHdQr7CkX8Tsr7DaD7uX+sP0SpjWLuRKRv18NMJ0=</t>
+  </si>
+  <si>
+    <t>CvZNGfqr4895gmRWkcr9Kg==</t>
+  </si>
+  <si>
+    <t>Ary Wahyu</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>gN0iQwOI+xOv3jwPGb2vvA==</t>
+  </si>
+  <si>
+    <t>xz/bWkTAT/VitL9PW0Y8CQ==</t>
   </si>
   <si>
     <t>Tryse Rezza</t>
+  </si>
+  <si>
+    <t>tryse rezza</t>
+  </si>
+  <si>
+    <t>dev</t>
   </si>
 </sst>
 </file>
@@ -39,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,14 +90,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,47 +149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,57 +166,57 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,24 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,13 +445,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,47 +499,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,140 +539,143 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -662,12 +686,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -972,20 +996,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="61.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="64.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,22 +1019,53 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="tryse.rezza@amarbank.co.id"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Ruth\tunaiku_crmf_automation\Data Files\Website\DataFiles_CRM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BEF663-0EF6-4239-90EF-F8008DCAEE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17930" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>GmailAccount</t>
   </si>
@@ -31,20 +25,47 @@
     <t>Username</t>
   </si>
   <si>
-    <t>ruth.hutauruk@amarbank.co.id</t>
-  </si>
-  <si>
-    <t>justsayyes</t>
-  </si>
-  <si>
-    <t>Ruth Hutauruk</t>
+    <t>env</t>
+  </si>
+  <si>
+    <t>a4TsHdQr7CkX8Tsr7DaD7uX+sP0SpjWLuRKRv18NMJ0=</t>
+  </si>
+  <si>
+    <t>CvZNGfqr4895gmRWkcr9Kg==</t>
+  </si>
+  <si>
+    <t>Ary Wahyu</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>gN0iQwOI+xOv3jwPGb2vvA==</t>
+  </si>
+  <si>
+    <t>xz/bWkTAT/VitL9PW0Y8CQ==</t>
+  </si>
+  <si>
+    <t>Tryse Rezza</t>
+  </si>
+  <si>
+    <t>tryse rezza</t>
+  </si>
+  <si>
+    <t>dev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,18 +78,341 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -76,34 +420,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,26 +990,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
-    <col min="2" max="2" width="64.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="61.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="64.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="17.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,22 +1019,54 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Ruth\tunaiku_crmf_automation\Data Files\Website\DataFiles_CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\tunaiku_crmf_automation\Data Files\Website\DataFiles_CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B649F008-6599-44D5-8374-8D208AA1FDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A2037-9E19-43E8-B7DA-5B826558F3E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\tunaiku_crmf_automation\Data Files\Website\DataFiles_CRM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A2037-9E19-43E8-B7DA-5B826558F3E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,20 +55,26 @@
     <t>dev</t>
   </si>
   <si>
+    <t>JpjjXlUP4Or6e5twOFFYRwyYnK4YSTIzAzHGYmWQq1s=</t>
+  </si>
+  <si>
+    <t>uUj0+BAYxBEoHu1JtxiHsQ==</t>
+  </si>
+  <si>
     <t>Ruth Hutauruk</t>
-  </si>
-  <si>
-    <t>JpjjXlUP4Or6e5twOFFYRwyYnK4YSTIzAzHGYmWQq1s=</t>
-  </si>
-  <si>
-    <t>uUj0+BAYxBEoHu1JtxiHsQ==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,29 +83,345 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,10 +429,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -125,29 +680,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -405,23 +1003,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="61.54296875" customWidth="1"/>
-    <col min="2" max="2" width="64.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="61.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="64.0925925925926" customWidth="1"/>
+    <col min="3" max="3" width="17.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -482,13 +1080,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -496,6 +1094,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_UserLogin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>GmailAccount</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Ruth Hutauruk</t>
+  </si>
+  <si>
+    <t>QAqng9woySKLHhCYqSREkA==</t>
+  </si>
+  <si>
+    <t>HxjNDwtPWoOtMXjlKOzmmA==</t>
+  </si>
+  <si>
+    <t>QA-Testing Technology Function</t>
   </si>
 </sst>
 </file>
@@ -69,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,7 +101,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,98 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +182,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -221,7 +200,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,91 +245,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,85 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,16 +450,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -480,35 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,151 +503,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="61.5462962962963" customWidth="1"/>
     <col min="2" max="2" width="64.0925925925926" customWidth="1"/>
@@ -1092,6 +1101,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
